--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.349936666666667</v>
+        <v>5.429001</v>
       </c>
       <c r="H2">
-        <v>16.04981</v>
+        <v>16.287003</v>
       </c>
       <c r="I2">
-        <v>0.04148245374559899</v>
+        <v>0.04230716253661782</v>
       </c>
       <c r="J2">
-        <v>0.04148245374559899</v>
+        <v>0.04239440107683373</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N2">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O2">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P2">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q2">
-        <v>180.1757270200378</v>
+        <v>200.607681908456</v>
       </c>
       <c r="R2">
-        <v>1621.58154318034</v>
+        <v>1805.469137176104</v>
       </c>
       <c r="S2">
-        <v>0.006685760618175699</v>
+        <v>0.007361936658654564</v>
       </c>
       <c r="T2">
-        <v>0.006976448793697392</v>
+        <v>0.007528192019431678</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.349936666666667</v>
+        <v>5.429001</v>
       </c>
       <c r="H3">
-        <v>16.04981</v>
+        <v>16.287003</v>
       </c>
       <c r="I3">
-        <v>0.04148245374559899</v>
+        <v>0.04230716253661782</v>
       </c>
       <c r="J3">
-        <v>0.04148245374559899</v>
+        <v>0.04239440107683373</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>155.582533</v>
       </c>
       <c r="O3">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P3">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q3">
-        <v>277.4522326631923</v>
+        <v>281.552575746511</v>
       </c>
       <c r="R3">
-        <v>2497.07009396873</v>
+        <v>2533.973181718599</v>
       </c>
       <c r="S3">
-        <v>0.01029538906957315</v>
+        <v>0.01033246687767785</v>
       </c>
       <c r="T3">
-        <v>0.01074301919512449</v>
+        <v>0.01056580602308417</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.349936666666667</v>
+        <v>5.429001</v>
       </c>
       <c r="H4">
-        <v>16.04981</v>
+        <v>16.287003</v>
       </c>
       <c r="I4">
-        <v>0.04148245374559899</v>
+        <v>0.04230716253661782</v>
       </c>
       <c r="J4">
-        <v>0.04148245374559899</v>
+        <v>0.04239440107683373</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N4">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O4">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P4">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q4">
-        <v>227.03550842042</v>
+        <v>351.4618722941869</v>
       </c>
       <c r="R4">
-        <v>2043.31957578378</v>
+        <v>3163.156850647682</v>
       </c>
       <c r="S4">
-        <v>0.008424581303096014</v>
+        <v>0.0128980107698103</v>
       </c>
       <c r="T4">
-        <v>0.008790871140317163</v>
+        <v>0.01318928785263076</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.349936666666667</v>
+        <v>5.429001</v>
       </c>
       <c r="H5">
-        <v>16.04981</v>
+        <v>16.287003</v>
       </c>
       <c r="I5">
-        <v>0.04148245374559899</v>
+        <v>0.04230716253661782</v>
       </c>
       <c r="J5">
-        <v>0.04148245374559899</v>
+        <v>0.04239440107683373</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N5">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O5">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P5">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q5">
-        <v>139.7410840245933</v>
+        <v>69.4052147096595</v>
       </c>
       <c r="R5">
-        <v>838.4465041475599</v>
+        <v>416.431288257957</v>
       </c>
       <c r="S5">
-        <v>0.005185356827831222</v>
+        <v>0.002547045006511765</v>
       </c>
       <c r="T5">
-        <v>0.003607206265414132</v>
+        <v>0.001736376787812919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.349936666666667</v>
+        <v>5.429001</v>
       </c>
       <c r="H6">
-        <v>16.04981</v>
+        <v>16.287003</v>
       </c>
       <c r="I6">
-        <v>0.04148245374559899</v>
+        <v>0.04230716253661782</v>
       </c>
       <c r="J6">
-        <v>0.04148245374559899</v>
+        <v>0.04239440107683373</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.86295166666665</v>
+        <v>46.01464833333333</v>
       </c>
       <c r="N6">
-        <v>164.588855</v>
+        <v>138.043945</v>
       </c>
       <c r="O6">
-        <v>0.262553560445503</v>
+        <v>0.216693880522677</v>
       </c>
       <c r="P6">
-        <v>0.2739690477507385</v>
+        <v>0.2211315210441077</v>
       </c>
       <c r="Q6">
-        <v>293.5133167630611</v>
+        <v>249.813571816315</v>
       </c>
       <c r="R6">
-        <v>2641.61985086755</v>
+        <v>2248.322146346835</v>
       </c>
       <c r="S6">
-        <v>0.01089136592692291</v>
+        <v>0.00916770322396334</v>
       </c>
       <c r="T6">
-        <v>0.01136490835104581</v>
+        <v>0.009374738393874201</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>4.08351</v>
       </c>
       <c r="I7">
-        <v>0.01055426915924182</v>
+        <v>0.01060733649339319</v>
       </c>
       <c r="J7">
-        <v>0.01055426915924182</v>
+        <v>0.01062920911485442</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N7">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O7">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P7">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q7">
-        <v>45.84162572912667</v>
+        <v>50.29675964018667</v>
       </c>
       <c r="R7">
-        <v>412.57463156214</v>
+        <v>452.67083676168</v>
       </c>
       <c r="S7">
-        <v>0.001701040095921799</v>
+        <v>0.001845799498224597</v>
       </c>
       <c r="T7">
-        <v>0.001774999106752743</v>
+        <v>0.001887483375134729</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>4.08351</v>
       </c>
       <c r="I8">
-        <v>0.01055426915924182</v>
+        <v>0.01060733649339319</v>
       </c>
       <c r="J8">
-        <v>0.01055426915924182</v>
+        <v>0.01062920911485442</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>155.582533</v>
       </c>
       <c r="O8">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P8">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q8">
         <v>70.59142548120336</v>
@@ -948,10 +948,10 @@
         <v>635.3228293308301</v>
       </c>
       <c r="S8">
-        <v>0.002619428156438777</v>
+        <v>0.00259057678196942</v>
       </c>
       <c r="T8">
-        <v>0.002733317485595331</v>
+        <v>0.002649080039668713</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>4.08351</v>
       </c>
       <c r="I9">
-        <v>0.01055426915924182</v>
+        <v>0.01060733649339319</v>
       </c>
       <c r="J9">
-        <v>0.01055426915924182</v>
+        <v>0.01062920911485442</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N9">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O9">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P9">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q9">
-        <v>57.76403390382001</v>
+        <v>88.11922427545666</v>
       </c>
       <c r="R9">
-        <v>519.87630513438</v>
+        <v>793.0730184791099</v>
       </c>
       <c r="S9">
-        <v>0.002143443567058153</v>
+        <v>0.003233815083022216</v>
       </c>
       <c r="T9">
-        <v>0.002236637705380721</v>
+        <v>0.003306844656386214</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>4.08351</v>
       </c>
       <c r="I10">
-        <v>0.01055426915924182</v>
+        <v>0.01060733649339319</v>
       </c>
       <c r="J10">
-        <v>0.01055426915924182</v>
+        <v>0.01062920911485442</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N10">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O10">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P10">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q10">
-        <v>35.55394824146</v>
+        <v>17.40141438661501</v>
       </c>
       <c r="R10">
-        <v>213.32368944876</v>
+        <v>104.40848631969</v>
       </c>
       <c r="S10">
-        <v>0.001319296394163985</v>
+        <v>0.0006386002234137773</v>
       </c>
       <c r="T10">
-        <v>0.0009177717902505553</v>
+        <v>0.0004353478646011137</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>4.08351</v>
       </c>
       <c r="I11">
-        <v>0.01055426915924182</v>
+        <v>0.01060733649339319</v>
       </c>
       <c r="J11">
-        <v>0.01055426915924182</v>
+        <v>0.01062920911485442</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.86295166666665</v>
+        <v>46.01464833333333</v>
       </c>
       <c r="N11">
-        <v>164.588855</v>
+        <v>138.043945</v>
       </c>
       <c r="O11">
-        <v>0.262553560445503</v>
+        <v>0.216693880522677</v>
       </c>
       <c r="P11">
-        <v>0.2739690477507385</v>
+        <v>0.2211315210441077</v>
       </c>
       <c r="Q11">
-        <v>74.67780392011666</v>
+        <v>62.63375887188334</v>
       </c>
       <c r="R11">
-        <v>672.1002352810499</v>
+        <v>563.70382984695</v>
       </c>
       <c r="S11">
-        <v>0.002771060945659106</v>
+        <v>0.002298544906763175</v>
       </c>
       <c r="T11">
-        <v>0.002891543071262469</v>
+        <v>0.002350453179063653</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>44.98903266666667</v>
+        <v>63.64001366666667</v>
       </c>
       <c r="H12">
-        <v>134.967098</v>
+        <v>190.920041</v>
       </c>
       <c r="I12">
-        <v>0.3488369270391816</v>
+        <v>0.4959344089323702</v>
       </c>
       <c r="J12">
-        <v>0.3488369270391816</v>
+        <v>0.4969570394110899</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N12">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O12">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P12">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q12">
-        <v>1515.145351000086</v>
+        <v>2351.569951505343</v>
       </c>
       <c r="R12">
-        <v>13636.30815900077</v>
+        <v>21164.12956354809</v>
       </c>
       <c r="S12">
-        <v>0.05622232964489052</v>
+        <v>0.08629833547091093</v>
       </c>
       <c r="T12">
-        <v>0.0586668034095692</v>
+        <v>0.08824721951643093</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>44.98903266666667</v>
+        <v>63.64001366666667</v>
       </c>
       <c r="H13">
-        <v>134.967098</v>
+        <v>190.920041</v>
       </c>
       <c r="I13">
-        <v>0.3488369270391816</v>
+        <v>0.4959344089323702</v>
       </c>
       <c r="J13">
-        <v>0.3488369270391816</v>
+        <v>0.4969570394110899</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>155.582533</v>
       </c>
       <c r="O13">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P13">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q13">
-        <v>2333.169219833249</v>
+        <v>3300.424842138206</v>
       </c>
       <c r="R13">
-        <v>20998.52297849924</v>
+        <v>29703.82357924385</v>
       </c>
       <c r="S13">
-        <v>0.08657665015979679</v>
+        <v>0.1211195822778075</v>
       </c>
       <c r="T13">
-        <v>0.09034089029865451</v>
+        <v>0.123854838064761</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>44.98903266666667</v>
+        <v>63.64001366666667</v>
       </c>
       <c r="H14">
-        <v>134.967098</v>
+        <v>190.920041</v>
       </c>
       <c r="I14">
-        <v>0.3488369270391816</v>
+        <v>0.4959344089323702</v>
       </c>
       <c r="J14">
-        <v>0.3488369270391816</v>
+        <v>0.4969570394110899</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N14">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O14">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P14">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q14">
-        <v>1909.201648770836</v>
+        <v>4119.917892097333</v>
       </c>
       <c r="R14">
-        <v>17182.81483893753</v>
+        <v>37079.261028876</v>
       </c>
       <c r="S14">
-        <v>0.07084453276044561</v>
+        <v>0.1511934850746098</v>
       </c>
       <c r="T14">
-        <v>0.07392476089751582</v>
+        <v>0.1546079028526652</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>44.98903266666667</v>
+        <v>63.64001366666667</v>
       </c>
       <c r="H15">
-        <v>134.967098</v>
+        <v>190.920041</v>
       </c>
       <c r="I15">
-        <v>0.3488369270391816</v>
+        <v>0.4959344089323702</v>
       </c>
       <c r="J15">
-        <v>0.3488369270391816</v>
+        <v>0.4969570394110899</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N15">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O15">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P15">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q15">
-        <v>1175.119741739841</v>
+        <v>813.5840852968466</v>
       </c>
       <c r="R15">
-        <v>7050.718450439048</v>
+        <v>4881.50451178108</v>
       </c>
       <c r="S15">
-        <v>0.04360503726504338</v>
+        <v>0.02985705455276649</v>
       </c>
       <c r="T15">
-        <v>0.03033395171222359</v>
+        <v>0.02035421295868189</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>44.98903266666667</v>
+        <v>63.64001366666667</v>
       </c>
       <c r="H16">
-        <v>134.967098</v>
+        <v>190.920041</v>
       </c>
       <c r="I16">
-        <v>0.3488369270391816</v>
+        <v>0.4959344089323702</v>
       </c>
       <c r="J16">
-        <v>0.3488369270391816</v>
+        <v>0.4969570394110899</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.86295166666665</v>
+        <v>46.01464833333333</v>
       </c>
       <c r="N16">
-        <v>164.588855</v>
+        <v>138.043945</v>
       </c>
       <c r="O16">
-        <v>0.262553560445503</v>
+        <v>0.216693880522677</v>
       </c>
       <c r="P16">
-        <v>0.2739690477507385</v>
+        <v>0.2211315210441077</v>
       </c>
       <c r="Q16">
-        <v>2468.231124721421</v>
+        <v>2928.372848800194</v>
       </c>
       <c r="R16">
-        <v>22214.08012249279</v>
+        <v>26355.35563920175</v>
       </c>
       <c r="S16">
-        <v>0.09158837720900531</v>
+        <v>0.1074659515562755</v>
       </c>
       <c r="T16">
-        <v>0.09557052072121844</v>
+        <v>0.1098928660185509</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>77.26852533333333</v>
+        <v>0.7921859999999999</v>
       </c>
       <c r="H17">
-        <v>231.805576</v>
+        <v>1.584372</v>
       </c>
       <c r="I17">
-        <v>0.5991263500559777</v>
+        <v>0.006173353414603005</v>
       </c>
       <c r="J17">
-        <v>0.5991263500559777</v>
+        <v>0.004124055360148531</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N17">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O17">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P17">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q17">
-        <v>2602.257483614984</v>
+        <v>29.27216206081599</v>
       </c>
       <c r="R17">
-        <v>23420.31735253486</v>
+        <v>175.632972364896</v>
       </c>
       <c r="S17">
-        <v>0.09656167836842516</v>
+        <v>0.001074235048745234</v>
       </c>
       <c r="T17">
-        <v>0.1007600545462862</v>
+        <v>0.000732329738393921</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>77.26852533333333</v>
+        <v>0.7921859999999999</v>
       </c>
       <c r="H18">
-        <v>231.805576</v>
+        <v>1.584372</v>
       </c>
       <c r="I18">
-        <v>0.5991263500559777</v>
+        <v>0.006173353414603005</v>
       </c>
       <c r="J18">
-        <v>0.5991263500559777</v>
+        <v>0.004124055360148531</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>155.582533</v>
       </c>
       <c r="O18">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P18">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q18">
-        <v>4007.210964178224</v>
+        <v>41.08343482904601</v>
       </c>
       <c r="R18">
-        <v>36064.89867760401</v>
+        <v>246.500608974276</v>
       </c>
       <c r="S18">
-        <v>0.1486951305602065</v>
+        <v>0.001507687253319737</v>
       </c>
       <c r="T18">
-        <v>0.1551602014294804</v>
+        <v>0.001027823671451765</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>77.26852533333333</v>
+        <v>0.7921859999999999</v>
       </c>
       <c r="H19">
-        <v>231.805576</v>
+        <v>1.584372</v>
       </c>
       <c r="I19">
-        <v>0.5991263500559777</v>
+        <v>0.006173353414603005</v>
       </c>
       <c r="J19">
-        <v>0.5991263500559777</v>
+        <v>0.004124055360148531</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N19">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O19">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P19">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q19">
-        <v>3279.047963922832</v>
+        <v>51.28442134478198</v>
       </c>
       <c r="R19">
-        <v>29511.43167530549</v>
+        <v>307.7065280686919</v>
       </c>
       <c r="S19">
-        <v>0.1216752672787405</v>
+        <v>0.001882044884444291</v>
       </c>
       <c r="T19">
-        <v>0.1269655496372229</v>
+        <v>0.00128303152972025</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>77.26852533333333</v>
+        <v>0.7921859999999999</v>
       </c>
       <c r="H20">
-        <v>231.805576</v>
+        <v>1.584372</v>
       </c>
       <c r="I20">
-        <v>0.5991263500559777</v>
+        <v>0.006173353414603005</v>
       </c>
       <c r="J20">
-        <v>0.5991263500559777</v>
+        <v>0.004124055360148531</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N20">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O20">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P20">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q20">
-        <v>2018.264544763162</v>
+        <v>10.127432177667</v>
       </c>
       <c r="R20">
-        <v>12109.58726857897</v>
+        <v>40.509728710668</v>
       </c>
       <c r="S20">
-        <v>0.07489151748468979</v>
+        <v>0.000371658320845498</v>
       </c>
       <c r="T20">
-        <v>0.05209846883577637</v>
+        <v>0.0001689117859228447</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.7921859999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.584372</v>
+      </c>
+      <c r="I21">
+        <v>0.006173353414603005</v>
+      </c>
+      <c r="J21">
+        <v>0.004124055360148531</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>46.01464833333333</v>
+      </c>
+      <c r="N21">
+        <v>138.043945</v>
+      </c>
+      <c r="O21">
+        <v>0.216693880522677</v>
+      </c>
+      <c r="P21">
+        <v>0.2211315210441077</v>
+      </c>
+      <c r="Q21">
+        <v>36.45216020459</v>
+      </c>
+      <c r="R21">
+        <v>218.71296122754</v>
+      </c>
+      <c r="S21">
+        <v>0.001337727907248244</v>
+      </c>
+      <c r="T21">
+        <v>0.0009119586346597501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>57.101078</v>
+      </c>
+      <c r="H22">
+        <v>171.303234</v>
+      </c>
+      <c r="I22">
+        <v>0.444977738623016</v>
+      </c>
+      <c r="J22">
+        <v>0.4458952950370734</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>36.95112266666666</v>
+      </c>
+      <c r="N22">
+        <v>110.853368</v>
+      </c>
+      <c r="O22">
+        <v>0.1740115908809209</v>
+      </c>
+      <c r="P22">
+        <v>0.1775751473829744</v>
+      </c>
+      <c r="Q22">
+        <v>2109.948937576901</v>
+      </c>
+      <c r="R22">
+        <v>18989.54043819211</v>
+      </c>
+      <c r="S22">
+        <v>0.07743128420438562</v>
+      </c>
+      <c r="T22">
+        <v>0.07917992273358318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>57.101078</v>
+      </c>
+      <c r="H23">
+        <v>171.303234</v>
+      </c>
+      <c r="I23">
+        <v>0.444977738623016</v>
+      </c>
+      <c r="J23">
+        <v>0.4458952950370734</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>51.86084433333334</v>
+      </c>
+      <c r="N23">
+        <v>155.582533</v>
+      </c>
+      <c r="O23">
+        <v>0.2442250025331967</v>
+      </c>
+      <c r="P23">
+        <v>0.2492264486514428</v>
+      </c>
+      <c r="Q23">
+        <v>2961.310117423525</v>
+      </c>
+      <c r="R23">
+        <v>26651.79105681173</v>
+      </c>
+      <c r="S23">
+        <v>0.1086746893424222</v>
+      </c>
+      <c r="T23">
+        <v>0.1111289008524771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>57.101078</v>
+      </c>
+      <c r="H24">
+        <v>171.303234</v>
+      </c>
+      <c r="I24">
+        <v>0.444977738623016</v>
+      </c>
+      <c r="J24">
+        <v>0.4458952950370734</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>64.73785366666665</v>
+      </c>
+      <c r="N24">
+        <v>194.213561</v>
+      </c>
+      <c r="O24">
+        <v>0.3048658902295037</v>
+      </c>
+      <c r="P24">
+        <v>0.3111091917238571</v>
+      </c>
+      <c r="Q24">
+        <v>3696.601231772919</v>
+      </c>
+      <c r="R24">
+        <v>33269.41108595627</v>
+      </c>
+      <c r="S24">
+        <v>0.1356585344176172</v>
+      </c>
+      <c r="T24">
+        <v>0.1387221248324547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>77.26852533333333</v>
-      </c>
-      <c r="H21">
-        <v>231.805576</v>
-      </c>
-      <c r="I21">
-        <v>0.5991263500559777</v>
-      </c>
-      <c r="J21">
-        <v>0.5991263500559777</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>54.86295166666665</v>
-      </c>
-      <c r="N21">
-        <v>164.588855</v>
-      </c>
-      <c r="O21">
-        <v>0.262553560445503</v>
-      </c>
-      <c r="P21">
-        <v>0.2739690477507385</v>
-      </c>
-      <c r="Q21">
-        <v>4239.179370717275</v>
-      </c>
-      <c r="R21">
-        <v>38152.61433645547</v>
-      </c>
-      <c r="S21">
-        <v>0.1573027563639157</v>
-      </c>
-      <c r="T21">
-        <v>0.1641420756072119</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>57.101078</v>
+      </c>
+      <c r="H25">
+        <v>171.303234</v>
+      </c>
+      <c r="I25">
+        <v>0.444977738623016</v>
+      </c>
+      <c r="J25">
+        <v>0.4458952950370734</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.7841595</v>
+      </c>
+      <c r="N25">
+        <v>25.568319</v>
+      </c>
+      <c r="O25">
+        <v>0.06020363583370166</v>
+      </c>
+      <c r="P25">
+        <v>0.04095769119761797</v>
+      </c>
+      <c r="Q25">
+        <v>729.9892887739411</v>
+      </c>
+      <c r="R25">
+        <v>4379.935732643647</v>
+      </c>
+      <c r="S25">
+        <v>0.02678927773016414</v>
+      </c>
+      <c r="T25">
+        <v>0.01826284180059921</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>57.101078</v>
+      </c>
+      <c r="H26">
+        <v>171.303234</v>
+      </c>
+      <c r="I26">
+        <v>0.444977738623016</v>
+      </c>
+      <c r="J26">
+        <v>0.4458952950370734</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>46.01464833333333</v>
+      </c>
+      <c r="N26">
+        <v>138.043945</v>
+      </c>
+      <c r="O26">
+        <v>0.216693880522677</v>
+      </c>
+      <c r="P26">
+        <v>0.2211315210441077</v>
+      </c>
+      <c r="Q26">
+        <v>2627.486023624237</v>
+      </c>
+      <c r="R26">
+        <v>23647.37421261813</v>
+      </c>
+      <c r="S26">
+        <v>0.09642395292842684</v>
+      </c>
+      <c r="T26">
+        <v>0.09860150481795923</v>
       </c>
     </row>
   </sheetData>
